--- a/人行货币信贷报表与EAST对应表抽取分析/20-委托贷款发生额报文.xlsx
+++ b/人行货币信贷报表与EAST对应表抽取分析/20-委托贷款发生额报文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>EAST对应字段</t>
+  </si>
+  <si>
+    <t>二次分析</t>
   </si>
   <si>
     <t>数据日期</t>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t>字段mapping处理</t>
+  </si>
+  <si>
+    <t>与EAST金融许可证号标准不同，建议mapping 【金融机构信息补充表】</t>
   </si>
   <si>
     <t>信贷合同编号</t>
@@ -134,6 +140,11 @@
 字段mapping处理</t>
   </si>
   <si>
+    <t>客户在开立账户使用的有效证件类型：通过客户统一编号关联对公客户.统一社会信用代码，可得证件号码，但EAST该字段填报有可能为统一社会信用代码、组织机构代码等，不太规范
+办理业务时使用的有效证件类型：
+EAST未抓取</t>
+  </si>
+  <si>
     <t>借款人代码</t>
   </si>
   <si>
@@ -172,6 +183,9 @@
     <t>所属行业</t>
   </si>
   <si>
+    <t>EAST该字段目前填报逻辑不符标准，仍在整改中</t>
+  </si>
+  <si>
     <t>12位借款人注册地编码</t>
   </si>
   <si>
@@ -190,6 +204,9 @@
   <si>
     <t xml:space="preserve">通过委托人客户统一编号关联对公客户
 </t>
+  </si>
+  <si>
+    <t>EAST该字段标准不同（GB/T2260），无法直接关联抓取</t>
   </si>
   <si>
     <t>委托人证件类型</t>
@@ -216,6 +233,10 @@
   <si>
     <t>通过委托人客户统一编号关联对公客户
 字段mapping处理</t>
+  </si>
+  <si>
+    <t>1.检查EAST 202007数据，均为公司对公司，需用户确认
+2. 通过客户统一编号关联对公客户.统一社会信用代码，可得证件号码，但EAST该字段填报有可能为统一社会信用代码、组织机构代码等，不太规范</t>
   </si>
   <si>
     <t>委托人代码</t>
@@ -269,6 +290,9 @@
 CS01 大型      CS02 中型
 CS03 小型      CS04 微型
 CS99 不适用此标准</t>
+  </si>
+  <si>
+    <t>EAST【对公客户】-我行客户部分有年收入（约80%有值）、总资产（约40%有值）、员工人数（约80%有值）可参考判断，均非准确数值而是范围数值</t>
   </si>
   <si>
     <t>贷款借据编码</t>
@@ -379,6 +403,10 @@
 字段mapping处理</t>
   </si>
   <si>
+    <t>值域不同，需确认mapping关系
+EAST：流动资金贷款，项目贷款，一般固定资产贷款（除项目贷款外的固定资产贷款），住房贷款，商用房贷款，公积金贷款，汽车贷款，助学贷款，消费贷款，个人经营性贷款，农户贷款，其他贷款。</t>
+  </si>
+  <si>
     <t>贷款实际投向</t>
   </si>
   <si>
@@ -541,6 +569,9 @@
     <t>交易金额</t>
   </si>
   <si>
+    <t>参考对公信贷分户账明细记录.账户余额</t>
+  </si>
+  <si>
     <t>利率是否固定</t>
   </si>
   <si>
@@ -554,6 +585,12 @@
     <t>利率类型</t>
   </si>
   <si>
+    <t>值域不同，需确认mapping关系：
+（EAST-货币信贷）
+固定-RF01
+浮动-RF02</t>
+  </si>
+  <si>
     <t>利率水平</t>
   </si>
   <si>
@@ -572,6 +609,9 @@
     <t xml:space="preserve">通过贷借据号关联对公信贷业务借据
 需要计算
 </t>
+  </si>
+  <si>
+    <t>委托贷款利率均为固定，基准利率即为执行利率</t>
   </si>
   <si>
     <t>贷款担保方式</t>
@@ -598,6 +638,16 @@
     <t>主要担保方式</t>
   </si>
   <si>
+    <t>值域不同，需确认mapping关系：
+（EAST-货币信贷）
+质押（含保证金）-A
+抵押-B
+保证-C
+信用-D
+其他-Z
+多种担保拼接(如“质押;抵押”)-E</t>
+  </si>
+  <si>
     <t>贷款状态</t>
   </si>
   <si>
@@ -615,6 +665,9 @@
 FS09 缩期</t>
   </si>
   <si>
+    <t>根据规范“贷款发生额状态包含正常、核销、剥离、转让、重组、以物抵债等状态”，EAST应无直接字段可mapping，需讨论</t>
+  </si>
+  <si>
     <t>发放/收回标识</t>
   </si>
   <si>
@@ -627,6 +680,12 @@
   </si>
   <si>
     <t>通过贷借据号关联对公信贷分户账明细记录字段mapping处理</t>
+  </si>
+  <si>
+    <t>值域不同，需确认mapping关系：
+（EAST-货币信贷）
+借-0
+贷-1</t>
   </si>
   <si>
     <t>属性标识</t>
@@ -638,6 +697,9 @@
 01 个体工商户
 02 小微企业主
 03 其他个人贷款</t>
+  </si>
+  <si>
+    <t>委托贷款为对公贷款，留空</t>
   </si>
   <si>
     <t>人民银行贷款专项监测标识</t>
@@ -664,9 +726,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -696,63 +758,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,55 +773,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,7 +788,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,6 +806,107 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -867,85 +929,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,25 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,68 +1107,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1210,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,11 +1260,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,15 +1286,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,6 +1307,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1231,17 +1325,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1253,10 +1341,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1265,142 +1353,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,6 +1542,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1806,13 +1903,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.81666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.2666666666667" style="2" customWidth="1"/>
@@ -1821,10 +1918,11 @@
     <col min="5" max="5" width="29.5333333333333" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.6333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.8166666666667" style="2" customWidth="1"/>
-    <col min="8" max="16382" width="8.725" style="2"/>
+    <col min="8" max="8" width="35.2833333333333" style="2" customWidth="1"/>
+    <col min="9" max="16382" width="8.725" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1846,672 +1944,736 @@
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:7">
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="68.25" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="68.25" spans="1:8">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="257.25" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="257.25" spans="1:8">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="68.25" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="68.25" spans="1:8">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="135.75" spans="1:7">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="135.75" spans="1:8">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="122.25" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="122.25" spans="1:8">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="257.25" spans="1:7">
+        <v>48</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="257.25" spans="1:8">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="9"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="297.75" spans="1:7">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="297.75" spans="1:8">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="12"/>
       <c r="G12" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="122.25" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="122.25" spans="1:8">
       <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="12"/>
       <c r="G13" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="409.5" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="409.5" spans="1:8">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="135.75" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="135.75" spans="1:8">
       <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="14"/>
       <c r="G19" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="54.75" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="54.75" spans="1:8">
       <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="41.25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="41.25" spans="1:7">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="41.25" spans="1:8">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="135.75" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="135.75" spans="1:8">
       <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="54.75" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="54.75" spans="1:8">
       <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="95.25" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="95.25" spans="1:8">
       <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="68.25" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="68.25" spans="1:8">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="189.75" spans="1:7">
+        <v>119</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="189.75" spans="1:8">
       <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="176.25" spans="1:7">
+        <v>80</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="176.25" spans="1:8">
       <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="55" customHeight="1" spans="1:7">
+        <v>73</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="55" customHeight="1" spans="1:8">
       <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="95.25" spans="1:7">
+        <v>132</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="95.25" spans="1:8">
       <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="14"/>
       <c r="G30" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="162.75" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="162.75" spans="1:8">
       <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="G31" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
